--- a/images/0909mitsuba_norough/mitsuba_norough.xlsx
+++ b/images/0909mitsuba_norough/mitsuba_norough.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\木津\Development\imaging-tools\images\0909mitsuba_norough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FAF1F9-83E6-43A7-8A63-9CA0205DB06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A9F512-5C61-4B9B-B998-E70E1675DCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9CD2D1BE-878D-4C79-AA21-B5B081B4529C}"/>
+    <workbookView xWindow="3315" yWindow="3525" windowWidth="16200" windowHeight="9307" xr2:uid="{9CD2D1BE-878D-4C79-AA21-B5B081B4529C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B229C67-3BB7-42CF-BA6F-3BA69B2B8C41}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -523,7 +523,7 @@
     <col min="11" max="18" width="11.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -601,8 +601,11 @@
       <c r="H2">
         <v>361</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="T2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -627,8 +630,11 @@
       <c r="H3">
         <v>635</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="T3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -653,8 +659,11 @@
       <c r="H4">
         <v>854</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="T4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -679,8 +688,11 @@
       <c r="H5">
         <v>1230</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="T5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -752,37 +764,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.7">
+      <c r="S6">
+        <f t="shared" ref="S6:T6" si="2">S3-S2</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:H7" si="2">B5-B4</f>
+        <f t="shared" ref="B7:H7" si="3">B5-B4</f>
         <v>447</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>451</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>412</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>387</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>396</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>376</v>
       </c>
       <c r="I7">
@@ -794,68 +814,76 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:R7" si="3">K5-K4</f>
+        <f t="shared" ref="K7:R7" si="4">K5-K4</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:T7" si="5">S5-S4</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:H8" si="4">(B3-B2)*(B5-B4)</f>
+        <f t="shared" ref="B8:H8" si="6">(B3-B2)*(B5-B4)</f>
         <v>153768</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>163262</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>147030</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>129780</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>115326</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>116028</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>103024</v>
       </c>
       <c r="I8">
@@ -867,49 +895,57 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:R8" si="5">(K3-K2)*(K5-K4)</f>
+        <f t="shared" ref="K8:R8" si="7">(K3-K2)*(K5-K4)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:T8" si="8">(S3-S2)*(S5-S4)</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.7">
       <c r="A12">
         <f>B2 * 51513 / ((30/35)*36)</f>
         <v>340558.16666666669</v>
